--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,15 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,6 +369,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,15 +675,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="19.5" customHeight="1">
@@ -701,428 +701,438 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="4"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="4"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="5"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="5"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="4"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="4"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="5"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="4"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="4"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="5"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="4"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="D29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="5"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="D30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="4"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="8">
+      <c r="E32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="5"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8">
+      <c r="D34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="8">
+      <c r="D35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="8">
+      <c r="D36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="8">
+      <c r="D37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="4"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="8">
+      <c r="D38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="4"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="5"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="8">
+      <c r="E40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="4"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="7">
+      <c r="E42" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="5"/>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="7">
+      <c r="E43" s="4">
         <v>2</v>
       </c>
     </row>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>我的咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +372,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -675,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -701,7 +708,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -715,7 +722,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,7 +734,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,7 +744,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,7 +756,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -761,7 +768,7 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,7 +780,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -785,7 +792,7 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -797,7 +804,7 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -807,7 +814,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -817,7 +824,7 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -827,7 +834,7 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -839,7 +846,7 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
@@ -849,7 +856,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
@@ -859,21 +866,21 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>47</v>
+      <c r="D20" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -885,7 +892,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -895,7 +902,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
@@ -905,7 +912,7 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -919,7 +926,7 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
@@ -931,7 +938,7 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
@@ -943,7 +950,7 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
@@ -953,7 +960,7 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -967,7 +974,7 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
@@ -979,7 +986,7 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
@@ -991,39 +998,45 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1037,7 +1050,7 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1062,7 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1061,7 +1074,7 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1086,7 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1085,27 +1098,31 @@
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -1117,7 +1134,7 @@
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="7" t="s">
         <v>50</v>
       </c>
@@ -1127,7 +1144,7 @@
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="10"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="7" t="s">
         <v>51</v>
       </c>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,98 @@
   </si>
   <si>
     <t>后置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研修生资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页广告图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页模块图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:E43"/>
+  <dimension ref="B5:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -691,9 +783,10 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="19.5" customHeight="1">
+    <row r="5" spans="2:8" ht="19.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -706,8 +799,14 @@
       <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -720,8 +819,12 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -732,8 +835,12 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -742,8 +849,12 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -754,8 +865,14 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -766,8 +883,12 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -778,8 +899,12 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -790,8 +915,12 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -802,8 +931,14 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -812,8 +947,12 @@
       <c r="E14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -822,8 +961,12 @@
       <c r="E15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -832,8 +975,12 @@
       <c r="E16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
@@ -844,8 +991,12 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -854,8 +1005,12 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -864,8 +1019,12 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="G19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
@@ -878,8 +1037,14 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="G20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
@@ -890,8 +1055,12 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -900,8 +1069,12 @@
       <c r="E22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -910,8 +1083,14 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
@@ -924,8 +1103,12 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>24</v>
@@ -936,8 +1119,14 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="G25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>25</v>
@@ -948,8 +1137,12 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="G26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>26</v>
@@ -959,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:8">
       <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
@@ -973,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:8">
       <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
         <v>29</v>
@@ -985,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:8">
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>30</v>
@@ -997,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:8">
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1011,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:8">
       <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>33</v>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +779,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -838,7 +842,9 @@
       <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="10"/>
@@ -852,7 +858,9 @@
       <c r="G8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="10"/>
@@ -1106,7 +1114,9 @@
       <c r="G24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="10"/>
@@ -1140,7 +1150,9 @@
       <c r="G26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="11"/>
@@ -1151,6 +1163,10 @@
       <c r="E27" s="4">
         <v>2</v>
       </c>
+      <c r="G27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="9" t="s">

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,7 +779,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -826,7 +826,9 @@
       <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="10"/>
@@ -1066,7 +1068,9 @@
       <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="10"/>
@@ -1080,7 +1084,9 @@
       <c r="G22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="11"/>
@@ -1166,7 +1172,9 @@
       <c r="G27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="9" t="s">

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,7 +779,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -928,7 +928,9 @@
       <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="9" t="s">
@@ -960,7 +962,9 @@
       <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="10"/>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约视频咨询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -439,13 +443,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -978,7 +998,9 @@
       <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="11"/>
@@ -1008,7 +1030,9 @@
       <c r="G17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="10"/>
@@ -1022,7 +1046,9 @@
       <c r="G18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="11"/>
@@ -1081,7 +1107,9 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
@@ -1193,6 +1221,10 @@
       <c r="E28" s="5">
         <v>1</v>
       </c>
+      <c r="G28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="10"/>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研修生园地管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技术团队管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研修生园地分类管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研修生资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技术团队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,47 +274,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页广告图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页模块图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约视频咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研修生档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研修生档案分类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研修生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个人中心部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页广告图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页模块图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友情链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约视频咨询</t>
+    <t>个人中心-基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-详细资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的留言咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的视频咨询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -443,26 +471,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -807,27 +819,27 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -838,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -856,550 +868,580 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4">
         <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
+      <c r="G29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
       </c>
+      <c r="G31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="G32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:8">
       <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:8">
       <c r="B38" s="10"/>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:8">
       <c r="B39" s="10"/>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:8">
       <c r="B40" s="11"/>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:8">
       <c r="B42" s="10"/>
       <c r="C42" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:8">
       <c r="B43" s="11"/>
       <c r="C43" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4">

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B5" sqref="B5:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -885,7 +885,9 @@
       <c r="C8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E8" s="4">
         <v>2</v>
       </c>
@@ -944,7 +946,9 @@
       <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="11"/>
@@ -1083,9 +1087,7 @@
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="5">
         <v>1</v>
       </c>
@@ -1211,7 +1213,9 @@
       <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H43"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1023,7 +1023,9 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="4">
         <v>2</v>
       </c>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1429,7 +1429,9 @@
       <c r="C41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E41" s="4">
         <v>2</v>
       </c>
@@ -1439,7 +1441,9 @@
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E42" s="4">
         <v>2</v>
       </c>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1260,7 +1260,9 @@
       <c r="G29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="11"/>
@@ -1276,7 +1278,9 @@
       <c r="G30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="9" t="s">
@@ -1294,7 +1298,9 @@
       <c r="G31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="10"/>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1350,7 +1350,9 @@
       <c r="G34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="10"/>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,7 +811,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -975,7 +975,9 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
@@ -991,7 +993,9 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
       <c r="E15" s="4">
         <v>2</v>
       </c>
@@ -1244,7 +1250,9 @@
       <c r="G28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="10"/>
@@ -1368,7 +1376,9 @@
       <c r="G35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10"/>
@@ -1461,7 +1471,9 @@
       <c r="C43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
       <c r="E43" s="4">
         <v>2</v>
       </c>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,35 +326,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>个人中心-基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-详细资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的留言咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-我的视频咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站内搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个人中心部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-详细资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-我的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-我的课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-我的留言咨询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-我的视频咨询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +815,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -993,8 +997,8 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -1011,8 +1015,8 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
-        <v>4</v>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -1084,9 +1088,9 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="9" t="s">
@@ -1266,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>45</v>
@@ -1284,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>45</v>
@@ -1304,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>45</v>
@@ -1322,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -1338,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -1356,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>45</v>
@@ -1374,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="1">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -1391,6 +1395,12 @@
       <c r="E36" s="5">
         <v>1</v>
       </c>
+      <c r="G36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10"/>
@@ -1471,8 +1481,8 @@
       <c r="C43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="1">
-        <v>2</v>
+      <c r="D43" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,7 +815,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -934,7 +934,9 @@
       <c r="G10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="10"/>
@@ -1042,7 +1044,9 @@
       <c r="G16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="9" t="s">
@@ -1051,7 +1055,9 @@
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
@@ -1067,7 +1073,9 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
@@ -1083,7 +1091,9 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
@@ -1328,7 +1338,9 @@
       <c r="G32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="11"/>
@@ -1344,7 +1356,9 @@
       <c r="G33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="9" t="s">

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,7 +815,7 @@
   <dimension ref="B5:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1055,8 +1055,8 @@
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>

--- a/ing.xlsx
+++ b/ing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1044,8 +1044,8 @@
       <c r="G16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="1">
-        <v>6</v>
+      <c r="H16" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -1073,8 +1073,8 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1091,8 +1091,8 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
-        <v>4</v>
+      <c r="D19" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1100,7 +1100,9 @@
       <c r="G19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="9" t="s">
@@ -1109,7 +1111,9 @@
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
@@ -1244,8 +1248,8 @@
       <c r="G27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>50</v>
+      <c r="H27" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1338,8 +1342,8 @@
       <c r="G32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="1">
-        <v>2</v>
+      <c r="H32" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -1356,8 +1360,8 @@
       <c r="G33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="1">
-        <v>5</v>
+      <c r="H33" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:8">
